--- a/resources/creole_data/Random_words_KSL.xlsx
+++ b/resources/creole_data/Random_words_KSL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62D8BC6D-3B7E-4D93-9ADB-55C2C0C6FADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585269AE-5184-4C8E-AB07-35C4863C6D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EF350900-75DF-4531-BC40-575FCD4C2CA7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Sòlsouwi</t>
   </si>
@@ -64,6 +64,132 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bélyé </t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fèm </t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pòté plent </t>
+  </si>
+  <si>
+    <t>complain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">défann </t>
+  </si>
+  <si>
+    <t>forbid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twilbiché </t>
+  </si>
+  <si>
+    <t>to stagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plisé </t>
+  </si>
+  <si>
+    <t>wrinkled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pèwèz </t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plenn </t>
+  </si>
+  <si>
+    <t>moan, groan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apwoché </t>
+  </si>
+  <si>
+    <t>to approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fè ditò </t>
+  </si>
+  <si>
+    <t>to harm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chagwinen </t>
+  </si>
+  <si>
+    <t>bother, worry, disturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wèspiwé </t>
+  </si>
+  <si>
+    <t>breathe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o pa </t>
+  </si>
+  <si>
+    <t>or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily </t>
+  </si>
+  <si>
+    <t>toulé jou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weekly </t>
+  </si>
+  <si>
+    <t>toulé simenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthly </t>
+  </si>
+  <si>
+    <t>toulé mwa</t>
+  </si>
+  <si>
+    <t>Lanmè</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>Lanmen</t>
+  </si>
+  <si>
+    <t>vòlkan</t>
+  </si>
+  <si>
+    <t>volcano</t>
+  </si>
+  <si>
+    <t>sann</t>
+  </si>
+  <si>
+    <t>ashes</t>
+  </si>
+  <si>
+    <t>labou vòlkan</t>
+  </si>
+  <si>
+    <t>lava</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
 </sst>
 </file>
@@ -99,8 +225,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54ADC98-0C85-4EE0-81EB-32995AE51DEA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,6 +592,174 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
